--- a/source/template.xlsx
+++ b/source/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINAL-BEM\Excel-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Desktop\ONLY SAVE FILES HERE\VS Code\Excel-Automation\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B3458-6DC1-48A7-8353-9298FD57A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>BANK</t>
   </si>
@@ -58,9 +57,6 @@
   </si>
   <si>
     <t>REQUEST REMARKS</t>
-  </si>
-  <si>
-    <t>PROBABILITY</t>
   </si>
   <si>
     <t>AREA</t>
@@ -81,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,18 +454,17 @@
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,36 +484,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/source/template.xlsx
+++ b/source/template.xlsx
@@ -38,40 +38,40 @@
     <t>CH NAME</t>
   </si>
   <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>MUNICIPALITY</t>
+  </si>
+  <si>
+    <t>DL TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED BY</t>
+  </si>
+  <si>
+    <t>DATE REQUESTED</t>
+  </si>
+  <si>
+    <t>REQUEST REMARKS</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>BRGY</t>
+  </si>
+  <si>
+    <t>FINAL AREA</t>
+  </si>
+  <si>
+    <t>REFERENCE CODE</t>
+  </si>
+  <si>
+    <t>AUTOFIELD DATE</t>
+  </si>
+  <si>
     <t>ADD TYPE</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>MUNICIPALITY</t>
-  </si>
-  <si>
-    <t>DL TYPE</t>
-  </si>
-  <si>
-    <t>REQUESTED BY</t>
-  </si>
-  <si>
-    <t>DATE REQUESTED</t>
-  </si>
-  <si>
-    <t>REQUEST REMARKS</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>BRGY</t>
-  </si>
-  <si>
-    <t>FINAL AREA</t>
-  </si>
-  <si>
-    <t>REFERENCE CODE</t>
-  </si>
-  <si>
-    <t>AUTOFIELD DATE</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -478,40 +478,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/source/template.xlsx
+++ b/source/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>BANK</t>
   </si>
@@ -38,40 +38,43 @@
     <t>CH NAME</t>
   </si>
   <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>MUNICIPALITY</t>
+  </si>
+  <si>
+    <t>DL TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED BY</t>
+  </si>
+  <si>
+    <t>DATE REQUESTED</t>
+  </si>
+  <si>
+    <t>REQUEST REMARKS</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>BRGY</t>
+  </si>
+  <si>
+    <t>FINAL AREA</t>
+  </si>
+  <si>
+    <t>REFERENCE CODE</t>
+  </si>
+  <si>
+    <t>AUTOFIELD DATE</t>
+  </si>
+  <si>
     <t>ADD TYPE</t>
   </si>
   <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>MUNICIPALITY</t>
-  </si>
-  <si>
-    <t>DL TYPE</t>
-  </si>
-  <si>
-    <t>REQUESTED BY</t>
-  </si>
-  <si>
-    <t>DATE REQUESTED</t>
-  </si>
-  <si>
-    <t>REQUEST REMARKS</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>BRGY</t>
-  </si>
-  <si>
-    <t>FINAL AREA</t>
-  </si>
-  <si>
-    <t>REFERENCE CODE</t>
-  </si>
-  <si>
-    <t>AUTOFIELD DATE</t>
+    <t>PERCENTAGE</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +108,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +462,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -464,7 +476,7 @@
     <col min="18" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,40 +490,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
